--- a/日报综合数据.xlsx
+++ b/日报综合数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aa0011\ribao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D62EBC-14A0-4A4D-A435-D350346C2BD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ECD09B-70F6-482C-80B1-2FB6A806AA29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="720" windowWidth="9840" windowHeight="4896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -97,7 +97,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79985961485641044"/>
+        <fgColor theme="9" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,15 +131,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -431,12 +428,12 @@
     <col min="2" max="2" width="12.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>11413.88814494273</v>
-      </c>
-      <c r="B1" s="3">
-        <v>10.430605148264643</v>
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>30236.849928912441</v>
+      </c>
+      <c r="B1" s="2">
+        <v>12.434529148385394</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -446,11 +443,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>2167.571576737485</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.6947692816759945</v>
+      <c r="A2" s="2">
+        <v>3962.5538116150656</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.8923628557299137</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -460,11 +457,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>12.125374429940639</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1200.5321217763008</v>
+      <c r="A3" s="2">
+        <v>14.326892004115308</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1290.7109913617396</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -474,11 +471,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1039.7240143879762</v>
-      </c>
-      <c r="B4" s="3">
-        <v>869.18947852343115</v>
+      <c r="A4" s="2">
+        <v>1265.9339634600296</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1051.9031661072681</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -488,10 +485,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>170.53453586454501</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="2">
+        <v>214.0307973527614</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="D5" t="s">
@@ -502,11 +499,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3">
-        <v>101</v>
+      <c r="A6" s="2">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2">
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -526,7 +523,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/日报综合数据.xlsx
+++ b/日报综合数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aa0011\ribao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ECD09B-70F6-482C-80B1-2FB6A806AA29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78CEB56-F564-4358-A556-C71EB6C88DE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="9840" windowHeight="4896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1368" yWindow="1368" windowWidth="9840" windowHeight="4896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>风电累计</t>
+    <t>风电月</t>
   </si>
   <si>
     <t>风电年</t>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -97,7 +97,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79982909634693444"/>
+        <fgColor theme="9" tint="0.79955442976165048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,12 +131,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -428,12 +431,12 @@
     <col min="2" max="2" width="12.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>30236.849928912441</v>
-      </c>
-      <c r="B1" s="2">
-        <v>12.434529148385394</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>3094.3627586963698</v>
+      </c>
+      <c r="B1" s="3">
+        <v>18.784216825372976</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -443,11 +446,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>3962.5538116150656</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1.8923628557299137</v>
+      <c r="A2" s="3">
+        <v>444.63905009641979</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.7164014885981449</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -457,11 +460,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>14.326892004115308</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1290.7109913617396</v>
+      <c r="A3" s="3">
+        <v>21.50061831397112</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1405.2691708477857</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -471,11 +474,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1265.9339634600296</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1051.9031661072681</v>
+      <c r="A4" s="3">
+        <v>1929.0730209054987</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1685.5598105217498</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -485,11 +488,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>214.0307973527614</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>243.5132103837488</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -499,11 +502,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2">
-        <v>111</v>
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>153</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -523,7 +526,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/日报综合数据.xlsx
+++ b/日报综合数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aa0011\ribao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78CEB56-F564-4358-A556-C71EB6C88DE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBCD1A0-0DF8-4EA0-ACC1-86A3AF0F5116}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1368" yWindow="1368" windowWidth="9840" windowHeight="4896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="9840" windowHeight="4896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -88,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,7 +97,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79955442976165048"/>
+        <fgColor theme="9" tint="0.7993408001953185"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,13 +141,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B6"/>
@@ -431,12 +437,12 @@
     <col min="2" max="2" width="12.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>3094.3627586963698</v>
-      </c>
-      <c r="B1" s="3">
-        <v>18.784216825372976</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1417.1161222565097</v>
+      </c>
+      <c r="B1" s="2">
+        <v>22.592744235725252</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -445,12 +451,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>444.63905009641979</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2.7164014885981449</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>340.86875010079109</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.2524602062101291</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -459,12 +465,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>21.50061831397112</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1405.2691708477857</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>25.84520444193538</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1412.306253657671</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -473,12 +479,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1929.0730209054987</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1685.5598105217498</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>856.77670634269964</v>
+      </c>
+      <c r="B4" s="2">
+        <v>682.01322219848305</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -487,12 +493,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>243.5132103837488</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>174.76348414421662</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -501,18 +507,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>153</v>
+      <c r="B6" s="2">
+        <v>183</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I13" s="3">
+        <v>224510.326234996</v>
       </c>
     </row>
   </sheetData>
@@ -523,10 +534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -579,6 +590,54 @@
         <v>104</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22.4510326234996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.2183733312000502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>25.669405954699702</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1414.8586264451201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/日报综合数据.xlsx
+++ b/日报综合数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aa0011\ribao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBCD1A0-0DF8-4EA0-ACC1-86A3AF0F5116}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2EC418-DA29-44B2-9226-61CF6D41A2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="9840" windowHeight="4896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="15375" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,18 +431,18 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
-        <v>1417.1161222565097</v>
+        <v>165081.24400053147</v>
       </c>
       <c r="B1" s="2">
-        <v>22.592744235725252</v>
+        <v>38.959157023552756</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -451,12 +451,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>340.86875010079109</v>
+        <v>29308.302798152239</v>
       </c>
       <c r="B2" s="2">
-        <v>3.2524602062101291</v>
+        <v>6.1492036110152766</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -465,12 +465,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>25.84520444193538</v>
+        <v>45.108360634568029</v>
       </c>
       <c r="B3" s="2">
-        <v>1412.306253657671</v>
+        <v>1322.8258250606459</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -479,12 +479,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>856.77670634269964</v>
+        <v>858.3149148304376</v>
       </c>
       <c r="B4" s="2">
-        <v>682.01322219848305</v>
+        <v>655.87675323010831</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -493,9 +493,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>174.76348414421662</v>
+        <v>202.43816160032929</v>
       </c>
       <c r="B5" s="2">
         <v>7</v>
@@ -507,12 +507,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>183</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -521,7 +521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="I13" s="3">
         <v>224510.326234996</v>
       </c>
@@ -540,9 +540,9 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>19144.714881867501</v>
       </c>
@@ -550,7 +550,7 @@
         <v>11.3253156436809</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>2662.99156799703</v>
       </c>
@@ -558,7 +558,7 @@
         <v>1.7624066313681099</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>13.087722275049</v>
       </c>
@@ -566,7 +566,7 @@
         <v>1258.43483413933</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1039.7240143879801</v>
       </c>
@@ -574,7 +574,7 @@
         <v>869.18947852343103</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>170.53453586454501</v>
       </c>
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>14</v>
       </c>
@@ -590,7 +590,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -598,7 +598,7 @@
         <v>22.4510326234996</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -606,7 +606,7 @@
         <v>3.2183733312000502</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>25.669405954699702</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1414.8586264451201</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>0</v>
       </c>
